--- a/biology/Zoologie/Cygne_siffleur/Cygne_siffleur.xlsx
+++ b/biology/Zoologie/Cygne_siffleur/Cygne_siffleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cygnus columbianus
 Le Cygne siffleur (Cygnus columbianus) est une espèce de cygnes appartenant à la famille des Anatidae.
@@ -512,7 +524,9 @@
           <t>Habitat et aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit surtout au Canada arctique et passe l'hiver sur les côtes américaines atlantique et pacifique. On le retrouve parfois en Europe, où il n'est pas toujours reconnu.
 </t>
@@ -543,7 +557,9 @@
           <t>Génétique des populations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une sous-espèce eurasienne, le Cygne de Bewick Cygnus columbianus bewickii, est parfois considérée comme une espèce distincte.
 </t>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cygne siffleur a un bec à 90 % noir, le reste est jaune. L'espèce eurasienne a un bec moitié jaune, moitié noir. Il mesure de 115 à 127 cm de longueur et de 170 à 195 cm d'envergure.
 Cet oiseau siffle quand il vole. Le nom ne dérive pas de sa voix. De loin on croirait entendre des chiens de chasse lorsqu'ils aboient.
-Le Cygne siffleur est considéré comme l'oiseau ayant le plus grand nombre de plumes, avec plus de 25 200 plumes en saison hivernale, dont 80 % couvrant sa tête et son cou[1].
+Le Cygne siffleur est considéré comme l'oiseau ayant le plus grand nombre de plumes, avec plus de 25 200 plumes en saison hivernale, dont 80 % couvrant sa tête et son cou.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Dynamique des populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La population mondiale est estimée à 300 000 oiseaux.
 Sans être considéré comme menacé à échelle planétaire, il est localement victime de saturnisme aviaire, comme de nombreux autres oiseaux qui ingèrent des billes de plomb de chasse, ou des agrès de pêche avec sa nourriture.
@@ -639,7 +659,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Cygnus columbianus bewickii Yarrel 1830
@@ -671,9 +693,11 @@
           <t>Le cygne siffleur et l'être humain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, la chasse au cygne siffleur, quoique étroitement contrôlée, est permise dans huit États[2] : l’Utah, le Nevada, le Montana, l'Alaska, la Caroline du Nord[3], le Dakota du Nord, le Dakota du Sud[4],[5] et la Virginie.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, la chasse au cygne siffleur, quoique étroitement contrôlée, est permise dans huit États : l’Utah, le Nevada, le Montana, l'Alaska, la Caroline du Nord, le Dakota du Nord, le Dakota du Sud, et la Virginie.
 </t>
         </is>
       </c>
